--- a/문제정리및분류.xlsx
+++ b/문제정리및분류.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyongjun/Desktop/SW_expert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D9906-DAAE-C542-84F2-B95A2FB8D600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006409E-1288-004E-814A-64067EC6CD28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14500" yWindow="460" windowWidth="19100" windowHeight="17440" xr2:uid="{D986B737-8414-3941-A5F5-2891F629F936}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,68 @@
   </si>
   <si>
     <t>for문을 이용한 BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix를 상하좌우 움짐여서 구슬 탈출시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS, 재귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 방향으로 움직이는 모든 경우의 수를 계산하여 시뮬레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS를 통하여 구슬이 움직일 수 있는 경우의 수를 계산
+두 구슬이 겹칠때 더 많이 움직인 구슬의 위치를 바꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix에서 주어진 경사로를 이용하여 길을 만듬.
+경사로 크기의 제약이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일직선 상의 길을 탐험하면서 경사로를 놓을 수 있는지 확인!
+문제의 조건에 정확하게 맞춰서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕 (본문)"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하는 것이 중요!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matrix에서 미세먼지가 퍼지고 공기 청정기로 미세먼지가 순환되는 바람이 분다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미세먼지 전파 구현. Matrix 방향에 맞춰 rotate 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +174,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕 (본문)"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,12 +205,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +532,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -470,7 +542,7 @@
     <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,25 +642,106 @@
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" s="1">
+        <v>43894</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>13460</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>13460</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>14890</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>17144</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>14891</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/문제정리및분류.xlsx
+++ b/문제정리및분류.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyongjun/Desktop/SW_expert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006409E-1288-004E-814A-64067EC6CD28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE5820-085A-404C-89B9-42CD72BFB801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14500" yWindow="460" windowWidth="19100" windowHeight="17440" xr2:uid="{D986B737-8414-3941-A5F5-2891F629F936}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,14 @@
   </si>
   <si>
     <t>미세먼지 전파 구현. Matrix 방향에 맞춰 rotate 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱니바퀴가 서로 맞물려서 시뮬레이션 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱니바퀴 시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE9346-983F-3D46-8D30-9295B40B53B6}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -743,6 +751,15 @@
       <c r="D9">
         <v>14891</v>
       </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
